--- a/data/trans_dic/P5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,79; 43,49</t>
+          <t>27,25; 44,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,63; 47,85</t>
+          <t>32,58; 48,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,09; 41,54</t>
+          <t>25,98; 41,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,37; 22,1</t>
+          <t>8,21; 22,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,31; 37,84</t>
+          <t>22,09; 38,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,96; 45,66</t>
+          <t>29,07; 44,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,92; 39,92</t>
+          <t>25,23; 40,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,35; 31,69</t>
+          <t>13,99; 31,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,91; 38,03</t>
+          <t>26,29; 38,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,53; 44,55</t>
+          <t>33,41; 44,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,32; 38,24</t>
+          <t>27,86; 38,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 23,95</t>
+          <t>12,67; 24,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 27,19</t>
+          <t>17,58; 27,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,85; 45,16</t>
+          <t>33,24; 45,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,57; 41,28</t>
+          <t>30,17; 41,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 27,37</t>
+          <t>17,18; 27,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,13; 32,49</t>
+          <t>22,19; 32,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,54; 40,77</t>
+          <t>28,39; 40,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,73; 40,44</t>
+          <t>28,91; 40,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 28,74</t>
+          <t>17,67; 29,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,93; 28,11</t>
+          <t>21,11; 28,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,33; 41,03</t>
+          <t>32,88; 41,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,63; 39,47</t>
+          <t>31,45; 39,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 26,53</t>
+          <t>18,76; 26,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,73; 39,27</t>
+          <t>24,42; 39,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,56; 41,52</t>
+          <t>25,63; 41,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,8; 47,18</t>
+          <t>32,21; 46,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 24,36</t>
+          <t>13,75; 24,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,12; 37,36</t>
+          <t>21,06; 37,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,22; 45,4</t>
+          <t>29,75; 46,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,07; 44,65</t>
+          <t>30,74; 43,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,49; 23,37</t>
+          <t>13,4; 23,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,04; 36,11</t>
+          <t>25,13; 36,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,09; 41,52</t>
+          <t>30,35; 40,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,55; 43,25</t>
+          <t>32,97; 42,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 21,8</t>
+          <t>14,76; 21,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,0; 34,58</t>
+          <t>23,59; 35,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,19; 45,71</t>
+          <t>31,79; 45,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,22; 47,61</t>
+          <t>33,65; 47,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 18,4</t>
+          <t>10,64; 18,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,38; 34,15</t>
+          <t>22,24; 33,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,76; 52,45</t>
+          <t>37,21; 52,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,28; 42,14</t>
+          <t>28,35; 42,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 26,61</t>
+          <t>12,42; 26,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,51; 32,87</t>
+          <t>24,37; 32,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,61; 46,17</t>
+          <t>36,69; 46,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,09; 43,15</t>
+          <t>33,1; 43,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 20,56</t>
+          <t>12,51; 20,27</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,84; 31,16</t>
+          <t>24,96; 31,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,63; 41,6</t>
+          <t>34,76; 41,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,91; 40,44</t>
+          <t>34,27; 40,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,71; 20,07</t>
+          <t>14,89; 20,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,92; 31,64</t>
+          <t>25,09; 31,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,54; 41,61</t>
+          <t>34,41; 41,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,58; 38,4</t>
+          <t>31,58; 38,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 23,16</t>
+          <t>16,34; 23,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,82; 30,31</t>
+          <t>25,79; 30,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35,7; 40,91</t>
+          <t>35,82; 40,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,99; 38,61</t>
+          <t>33,9; 38,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,2; 20,37</t>
+          <t>16,1; 20,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>29,26%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>37,63%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32,05%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>34,69%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>40,08%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>33,36%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,22%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>29,26%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>37,63%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>32,05%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>17,75%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,25; 44,01</t>
+          <t>22,46; 38,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,58; 48,0</t>
+          <t>30,87; 45,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,98; 41,52</t>
+          <t>25,06; 39,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 22,15</t>
+          <t>14,78; 31,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,09; 38,13</t>
+          <t>26,55; 43,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,07; 44,98</t>
+          <t>32,07; 47,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,23; 40,19</t>
+          <t>24,94; 41,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 31,47</t>
+          <t>8,36; 20,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,29; 38,31</t>
+          <t>26,67; 38,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,41; 44,25</t>
+          <t>34,21; 45,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,86; 38,45</t>
+          <t>27,53; 37,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,67; 24,3</t>
+          <t>12,66; 23,72</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>27,35%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34,09%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34,73%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>22,08%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>39,13%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>35,76%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>22,08%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>27,35%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>34,09%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>34,73%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>22,43%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,58; 27,07</t>
+          <t>22,27; 33,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,24; 45,07</t>
+          <t>28,32; 40,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,17; 41,12</t>
+          <t>29,09; 40,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 27,88</t>
+          <t>17,67; 29,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 32,9</t>
+          <t>17,36; 27,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,39; 40,6</t>
+          <t>33,39; 44,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 40,95</t>
+          <t>30,62; 41,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 29,09</t>
+          <t>17,53; 28,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,41</t>
+          <t>20,54; 28,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,88; 41,32</t>
+          <t>32,6; 41,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,45; 39,03</t>
+          <t>31,51; 39,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,76; 26,45</t>
+          <t>18,71; 26,65</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>29,15%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37,3%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>31,31%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>33,72%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>39,63%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>18,44%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>29,15%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>37,3%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>37,0%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,18%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,42; 39,5</t>
+          <t>21,16; 37,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,63; 41,55</t>
+          <t>29,17; 45,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,21; 46,5</t>
+          <t>30,62; 43,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,75; 24,55</t>
+          <t>13,46; 23,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,06; 37,25</t>
+          <t>24,41; 38,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,75; 46,11</t>
+          <t>25,93; 41,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,74; 43,83</t>
+          <t>32,45; 46,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,4; 23,45</t>
+          <t>13,93; 23,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,13; 36,14</t>
+          <t>25,27; 35,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,35; 40,95</t>
+          <t>30,5; 41,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,97; 42,94</t>
+          <t>33,55; 42,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 21,97</t>
+          <t>14,52; 22,27</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>27,84%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>44,46%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35,45%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>29,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>38,95%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>40,71%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>27,84%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>44,46%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>35,45%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>17,86%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,59; 35,49</t>
+          <t>21,62; 33,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,79; 45,71</t>
+          <t>36,23; 52,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,65; 47,47</t>
+          <t>28,1; 43,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 18,29</t>
+          <t>12,72; 46,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,24; 33,92</t>
+          <t>23,33; 35,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,21; 52,39</t>
+          <t>32,75; 46,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,35; 42,85</t>
+          <t>33,44; 48,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 26,41</t>
+          <t>10,21; 18,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,37; 32,7</t>
+          <t>24,23; 32,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,69; 46,23</t>
+          <t>36,51; 47,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,1; 43,53</t>
+          <t>33,09; 43,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 20,27</t>
+          <t>12,97; 35,29</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38,03%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>27,93%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>38,26%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>37,37%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,26%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>28,1%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>38,03%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>35,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>19,03%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,96; 31,27</t>
+          <t>25,11; 31,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,76; 41,81</t>
+          <t>34,46; 41,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,27; 40,75</t>
+          <t>31,61; 38,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,13</t>
+          <t>16,9; 31,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,09; 31,61</t>
+          <t>24,8; 31,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,41; 41,86</t>
+          <t>34,92; 41,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,58; 38,26</t>
+          <t>34,31; 40,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 23,15</t>
+          <t>14,75; 19,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,79; 30,2</t>
+          <t>25,76; 30,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35,82; 40,78</t>
+          <t>35,81; 40,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,9; 38,93</t>
+          <t>33,97; 38,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,1; 20,23</t>
+          <t>16,67; 25,18</t>
         </is>
       </c>
     </row>
